--- a/Operations/accounts/Reimbursements/Operations Reimbursements.xlsx
+++ b/Operations/accounts/Reimbursements/Operations Reimbursements.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>Alexis Shaw</t>
+  </si>
+  <si>
+    <t>Aiden Rhodes</t>
   </si>
 </sst>
 </file>
@@ -548,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,7 +624,7 @@
       </c>
       <c r="I2" s="3">
         <f>SUM(C:C)</f>
-        <v>3948.5199999999995</v>
+        <v>3972.6299999999997</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -649,7 +652,7 @@
       </c>
       <c r="I3" s="6">
         <f>I1-I2</f>
-        <v>41051.480000000003</v>
+        <v>41027.370000000003</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -858,6 +861,23 @@
       </c>
       <c r="G13" s="2" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="4">
+        <v>41041</v>
+      </c>
+      <c r="C14" s="3">
+        <v>24.11</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Operations/accounts/Reimbursements/Operations Reimbursements.xlsx
+++ b/Operations/accounts/Reimbursements/Operations Reimbursements.xlsx
@@ -117,7 +117,7 @@
     <t>Alexis Shaw</t>
   </si>
   <si>
-    <t>Aiden Rhodes</t>
+    <t>Aiden Rohde</t>
   </si>
 </sst>
 </file>
@@ -554,7 +554,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
